--- a/src/test/java/TestData/TTTdata.xlsx
+++ b/src/test/java/TestData/TTTdata.xlsx
@@ -24,9 +24,6 @@
     <t>combo</t>
   </si>
   <si>
-    <t>status</t>
-  </si>
-  <si>
     <t>x-o</t>
   </si>
   <si>
@@ -67,13 +64,16 @@
   </si>
   <si>
     <t>valid</t>
+  </si>
+  <si>
+    <t>status ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,8 +81,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +99,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -108,9 +127,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -394,7 +416,7 @@
   <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -403,107 +425,107 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B2" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
-      <c r="B4" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>5</v>
-      </c>
-      <c r="B5" t="s">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>6</v>
-      </c>
-      <c r="B6" t="s">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>7</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>8</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>9</v>
-      </c>
-      <c r="B9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>10</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B12" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
+      <c r="B13" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TestData/TTTdata.xlsx
+++ b/src/test/java/TestData/TTTdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>combo</t>
   </si>
@@ -58,22 +58,13 @@
   </si>
   <si>
     <t>xxxooooxx</t>
-  </si>
-  <si>
-    <t>invalid</t>
-  </si>
-  <si>
-    <t>valid</t>
-  </si>
-  <si>
-    <t>status ?</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -81,26 +72,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -127,12 +105,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -413,10 +389,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B13"/>
+  <dimension ref="A1:A13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -424,108 +400,69 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="B3" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B8" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B9" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+    </row>
+    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B11" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" s="3" t="s">
+    </row>
+    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B12" s="4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+    </row>
+    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" s="4" t="s">
-        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/src/test/java/TestData/TTTdata.xlsx
+++ b/src/test/java/TestData/TTTdata.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="16">
   <si>
     <t>combo</t>
   </si>
@@ -58,6 +58,15 @@
   </si>
   <si>
     <t>xxxooooxx</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>valid</t>
+  </si>
+  <si>
+    <t>invalid</t>
   </si>
 </sst>
 </file>
@@ -73,7 +82,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -92,6 +101,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -105,10 +126,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -389,10 +412,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:A13"/>
+  <dimension ref="A1:B13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -400,69 +423,108 @@
     <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B1" s="4" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B2" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B5" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B8" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B9" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B11" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="B12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>15</v>
       </c>
     </row>
   </sheetData>
